--- a/hw2_requirements-1.xlsx
+++ b/hw2_requirements-1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/ECE568/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A199033-E136-5345-B25C-FA2980D0F802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16480"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Extra note to TA</t>
   </si>
@@ -82,18 +88,18 @@
   </si>
   <si>
     <t>Any extra tests you would like to mention?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our cache stores up to 100 entries by default. It follows the Least Recently Used (LRU) policy, meaning the oldest unused entry is removed when the cache is full. Each cached response has an expiry time, determined by the Cache-Control: max-age or Expires headers. If no expiration is provided, we set a default expiry of 1 day (86400 seconds). Expired responses are removed when accessed. If both Content-Length and Transfer-Encoding exist, Content-Length is ignored. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -115,6 +121,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,20 +145,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,18 +463,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -479,7 +484,7 @@
     <col min="3" max="3" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3" ht="28">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -494,102 +499,142 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="16" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="16" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="16" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="16" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="55" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="16" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="43" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="31" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="16" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
